--- a/Thesis/MG_8.xlsx
+++ b/Thesis/MG_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FD7FB5-0D2E-4523-87B6-2A6BE22794A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE9D218-8C93-4A5B-B357-D35F6BF60724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,9 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -439,947 +437,947 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.1553643253395918</v>
+        <v>0.15461861522284481</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.25837489497496219</v>
+        <v>0.26095087094892139</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.18456511232539341</v>
+        <v>0.18230150824972141</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.26397641530472882</v>
+        <v>0.26058494306620122</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.36711708211219313</v>
+        <v>0.36679890061497028</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.2219945529503998</v>
+        <v>0.2254509292656654</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.26825262060561073</v>
+        <v>0.26081864656804599</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.23473254542363339</v>
+        <v>0.23378633572486809</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.22004448936886581</v>
+        <v>0.2203778232969083</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.30355579647236097</v>
+        <v>0.30049484795006992</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.27124597047362481</v>
+        <v>0.26687714386044509</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.28200346860629238</v>
+        <v>0.27893841551113763</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.24282549231927131</v>
+        <v>0.2436224057108565</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.26917575746981071</v>
+        <v>0.26823512643860248</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.34679103787908933</v>
+        <v>0.35054500030488139</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.32817489740820172</v>
+        <v>0.32379589294394789</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.2375238383562806</v>
+        <v>0.23781749556904819</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.22772038120193019</v>
+        <v>0.22592731221223061</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.25533671439841571</v>
+        <v>0.25178668397605758</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.2188881036865459</v>
+        <v>0.20618638694453431</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.1531992624688378</v>
+        <v>0.15521224164528161</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.21055178757730431</v>
+        <v>0.20887008052759981</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.21602842760965821</v>
+        <v>0.21033943836109051</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.23007124423336239</v>
+        <v>0.22750221786519609</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.19673553825289419</v>
+        <v>0.19801667692695549</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.23891374778917571</v>
+        <v>0.24271423567193839</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.18920042311103791</v>
+        <v>0.18822766288290249</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.20196637814739499</v>
+        <v>0.20374656366314839</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5.6907663370022607E-2</v>
+        <v>5.9949300839954783E-2</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>3.9900542956970847E-2</v>
+        <v>3.6773277080453928E-2</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>6.1400253696839567E-2</v>
+        <v>5.5245689712877862E-2</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.13167786662198019</v>
+        <v>0.130723451511081</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>-5.1443015858150254E-3</v>
+        <v>6.8020770595813196E-4</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.1182384461710452</v>
+        <v>0.11042700774357971</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>2.29099791653961E-2</v>
+        <v>1.9859891670637651E-2</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>6.777816734407105E-2</v>
+        <v>6.6150849447005125E-2</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>-2.0010540908768842E-2</v>
+        <v>-2.4877139520562901E-2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>-1.4574348453908949E-2</v>
+        <v>-2.102028214407017E-2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>5.7445429934022067E-2</v>
+        <v>5.5626397910990791E-2</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>7.1202085297597806E-2</v>
+        <v>7.4413652894910393E-2</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>4.0824855631929849E-2</v>
+        <v>3.6947782341877948E-2</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>-1.1236819501851261E-2</v>
+        <v>-1.4566087882015391E-3</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.1022403728193477</v>
+        <v>9.6333895270783315E-2</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>4.3885987662347133E-3</v>
+        <v>7.2735696663362211E-3</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>6.3867437957017145E-2</v>
+        <v>6.0008726661136311E-2</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>3.0449268712770049E-2</v>
+        <v>2.8481866118009971E-2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>4.1097372668062251E-2</v>
+        <v>2.5563987129247869E-2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1.9560205253364059E-4</v>
+        <v>3.8915380669677781E-3</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>7.130354666556038E-2</v>
+        <v>7.1277307807909973E-2</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>8.4890453709370983E-2</v>
+        <v>7.9220444054151753E-2</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>6.9241242649126539E-2</v>
+        <v>6.6359645267342574E-2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>5.8019049747533143E-2</v>
+        <v>6.0844181200551642E-2</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>5.2695755464461799E-2</v>
+        <v>5.6894994177727157E-2</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>-2.37431420997339E-2</v>
+        <v>-2.1806612119345242E-2</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>6.349377904824903E-2</v>
+        <v>6.3420769376044128E-2</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>-9.3963918436854449E-2</v>
+        <v>-8.8740757396035069E-2</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>-0.20480341598910831</v>
+        <v>-0.20753790100522229</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>-0.1808519062118569</v>
+        <v>-0.18665025671922519</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>-8.8460783334136456E-2</v>
+        <v>-9.0093314385614548E-2</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>-0.2236151211473128</v>
+        <v>-0.21752566230972339</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>-0.1080907389790844</v>
+        <v>-0.1154581625440716</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>-0.2217542578911503</v>
+        <v>-0.2220879950529312</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-0.35778080035664078</v>
+        <v>-0.35978562806437608</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>-0.3337821249797327</v>
+        <v>-0.33993992593349359</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-0.27230373952482118</v>
+        <v>-0.27903983487090112</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-0.22186719507185709</v>
+        <v>-0.22399023730890871</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-0.29997958159981319</v>
+        <v>-0.29712266655515501</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>-0.1770744958103781</v>
+        <v>-0.17901517038459619</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>-0.18006563188926741</v>
+        <v>-0.17389954521740439</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>-0.17374910551420511</v>
+        <v>-0.18029984038818819</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-0.30449586668159651</v>
+        <v>-0.30659717855310359</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-0.20346528936001981</v>
+        <v>-0.20029484554720531</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>-0.1454412429414989</v>
+        <v>-0.14748475399841909</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>-0.171542876428151</v>
+        <v>-0.18957482647573801</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>-0.23274795698504089</v>
+        <v>-0.22801631213624551</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-0.14220274418929801</v>
+        <v>-0.14374450936226041</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-7.1943232794341005E-2</v>
+        <v>-7.8180460755826117E-2</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>-0.14483010191820439</v>
+        <v>-0.14756335813763391</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>-0.2145509519019991</v>
+        <v>-0.21202257628729171</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>-0.11720723062910381</v>
+        <v>-0.1092426937566524</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>-0.18259328160794619</v>
+        <v>-0.18246945553363289</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>-0.25939487829188701</v>
+        <v>-0.25797262785406588</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>-9.9713945895084324E-2</v>
+        <v>-9.3536007355811496E-2</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>-0.42948148789120588</v>
+        <v>-0.43444197368167592</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>-0.6707214419756482</v>
+        <v>-0.67648936601629017</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>-0.33911975642532238</v>
+        <v>-0.34119430736426742</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>-0.42823227185700968</v>
+        <v>-0.42019889694473322</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>-0.20709510425714789</v>
+        <v>-0.21721546776037351</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-0.38745350164543568</v>
+        <v>-0.38956765583876313</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-0.90750072618504363</v>
+        <v>-0.9070514340321294</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>-1.015791616436803</v>
+        <v>-1.028016450790066</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-0.87065717918663288</v>
+        <v>-0.88329221017633097</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-0.57041978998765086</v>
+        <v>-0.57242324804465494</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-0.72152801288970947</v>
+        <v>-0.71623198360226659</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-0.47385018081117147</v>
+        <v>-0.47796522851540763</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-0.39151472532513731</v>
+        <v>-0.38420860902927118</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-0.65103701658322033</v>
+        <v>-0.66122743842493725</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-0.72661969507906532</v>
+        <v>-0.72760618307890579</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>-0.29734868281630489</v>
+        <v>-0.30251317282336088</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>-0.22300341465027571</v>
+        <v>-0.22556966565390321</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>-0.37032231756836348</v>
+        <v>-0.38883344790325552</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>-0.2196787378949443</v>
+        <v>-0.2182873778154317</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>-0.22458624973734961</v>
+        <v>-0.22577593314026051</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>-9.092114144705607E-2</v>
+        <v>-9.5363272365382085E-2</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>-0.13877371298636551</v>
+        <v>-0.14282721382175009</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>-9.8376238600288712E-2</v>
+        <v>-9.5459471462778889E-2</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>-7.750098628053155E-3</v>
+        <v>1.9945717739549181E-3</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>-0.129018456181795</v>
+        <v>-0.1286453399655231</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>-0.28889883524839111</v>
+        <v>-0.2842569507735645</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>-3.9188310348240458E-3</v>
+        <v>2.570816994190081E-3</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>-0.21892452151926661</v>
+        <v>-0.22328395339344051</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>-0.11532533784621531</v>
+        <v>-0.11876217134721501</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>-9.3562454736983894E-2</v>
+        <v>-9.6701124671478816E-2</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>-0.17858201066672749</v>
+        <v>-0.1741331050026764</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>-9.5657031088333552E-2</v>
+        <v>-0.1051516818930303</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>-0.17415005577318851</v>
+        <v>-0.173520486546237</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-0.27298473401717832</v>
+        <v>-0.27503593327707021</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>-0.2228273315636112</v>
+        <v>-0.23782496837188091</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>-0.26209363085593668</v>
+        <v>-0.26863004764209442</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>-0.22542520808605801</v>
+        <v>-0.23399876799571351</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>-0.29827210956090811</v>
+        <v>-0.29423102081507729</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>-0.12768898973750259</v>
+        <v>-0.12950994200940719</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>-0.14220036917979051</v>
+        <v>-0.13454633338461749</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>-0.15167931209246791</v>
+        <v>-0.15755939979391989</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>-0.1753178636768899</v>
+        <v>-0.17681170253200351</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>-6.7929791210377899E-2</v>
+        <v>-6.8086062264219163E-2</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>-1.690479047162546E-2</v>
+        <v>-1.7281883052191679E-2</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>-8.0339384901592065E-2</v>
+        <v>-0.1036289194438508</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>-0.12039198984865521</v>
+        <v>-0.12100031404124539</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>-7.11297932136951E-2</v>
+        <v>-7.3790682366886878E-2</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>-1.5234802596827199E-2</v>
+        <v>-1.7985084575151831E-2</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>-6.6471290901603364E-2</v>
+        <v>-6.8557017361806805E-2</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>-0.10286640228038881</v>
+        <v>-0.1013552087564744</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>1.247783284130107E-2</v>
+        <v>1.9237527095835351E-2</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>-7.2528436567755608E-2</v>
+        <v>-7.4977367838424763E-2</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-0.201776190260994</v>
+        <v>-0.19784693752746521</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.13970017689227759</v>
+        <v>0.14127983848547149</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.1383731340191634</v>
+        <v>0.13595255687486241</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>7.5259100805941948E-2</v>
+        <v>6.9185832747569037E-2</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.15550654365255109</v>
+        <v>0.15586064850911219</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>9.1864608129219483E-2</v>
+        <v>9.6528321253044586E-2</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.23015322336183761</v>
+        <v>0.22571468332447739</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>7.6577213172097619E-2</v>
+        <v>7.4878922721809765E-2</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>8.6241027155549072E-2</v>
+        <v>8.7060061897933957E-2</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.14668468009525701</v>
+        <v>0.14386072875270151</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>5.9552715723274238E-2</v>
+        <v>5.3253937279808511E-2</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.12386194904648599</v>
+        <v>0.1185365820238129</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.16862643345760381</v>
+        <v>0.16937131439981959</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.12651937621122339</v>
+        <v>0.12491041791431259</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.1601089937267941</v>
+        <v>0.16625752343923139</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.18237094051558431</v>
+        <v>0.17760150200647171</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>8.4369274999716803E-2</v>
+        <v>8.434360911076097E-2</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.1225562393441009</v>
+        <v>0.12301667065207721</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.12015194398175059</v>
+        <v>0.116224022158935</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>5.0421415664005542E-2</v>
+        <v>3.5574717785680762E-2</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>-1.423503621969382E-2</v>
+        <v>-1.092550049352687E-2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>6.9029153233262336E-2</v>
+        <v>6.8828145550100889E-2</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.1076821309151607</v>
+        <v>0.1042470859474839</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>9.5636123829748815E-2</v>
+        <v>9.3404491794668018E-2</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.1229714416281214</v>
+        <v>0.1241198373196734</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.14300604081661261</v>
+        <v>0.14803165466626941</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>8.5803636370608991E-2</v>
+        <v>8.5261907323651326E-2</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>5.8482711178225087E-2</v>
+        <v>6.0038788371572283E-2</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -1519,892 +1517,892 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>-8.1082176235585834E-2</v>
+        <v>-9.4137441185285858E-2</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.33900357545017529</v>
+        <v>0.34933237508956239</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>-0.45013641181070557</v>
+        <v>-0.44126192269272491</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>-0.69914996119286621</v>
+        <v>-0.69958393037049005</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>8.1644232291411156E-2</v>
+        <v>5.8025854534408838E-2</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>-0.53687789530799135</v>
+        <v>-0.51945821493082178</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>-0.33683498447973681</v>
+        <v>-0.33735313180949922</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>-0.3027221918906664</v>
+        <v>-0.30605210031560059</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>-0.45147233570516759</v>
+        <v>-0.44215318487983379</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>-0.31950142935072662</v>
+        <v>-0.30416100925655359</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>-0.38176956247622817</v>
+        <v>-0.37208943102625658</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>-0.52922683836942686</v>
+        <v>-0.53352505202044531</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>-0.56962350697318564</v>
+        <v>-0.56868657740886186</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>-0.67136707085425784</v>
+        <v>-0.68074446299398084</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>-0.74443569499275708</v>
+        <v>-0.73897174662620269</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>-0.23480384149935479</v>
+        <v>-0.2380544585908338</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>-0.35809036822599982</v>
+        <v>-0.35436816689500522</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>-0.48229650223976173</v>
+        <v>-0.47367329683485582</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>-0.60173832335852051</v>
+        <v>-0.57602794246859634</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>-0.29037674424988741</v>
+        <v>-0.2982988304845961</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>-0.2345887281427754</v>
+        <v>-0.2286631784729162</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>-2.6266888764075451E-2</v>
+        <v>2.043971627627453E-4</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>-0.36505582649015522</v>
+        <v>-0.359155419666076</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.22882722038739001</v>
+        <v>0.2165634216781874</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>-0.34776507502313903</v>
+        <v>-0.36318195596635089</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>-5.72825460672397E-3</v>
+        <v>-5.6951902408382262E-3</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>-0.64777011423908104</v>
+        <v>-0.65298499343841221</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.36150919722049468</v>
+        <v>0.34255007673948912</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.44544553362301881</v>
+        <v>0.45978672501678131</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>-6.6807620937316015E-2</v>
+        <v>-4.3105442598953707E-2</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>-0.39023921954821672</v>
+        <v>-0.38950769157051462</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.4766376417346237</v>
+        <v>0.43740872800376063</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>-0.45916611599371382</v>
+        <v>-0.4416365528427193</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.34167518270738628</v>
+        <v>0.35062781177634972</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.21995103579654829</v>
+        <v>0.22552068276352771</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.66584297353299871</v>
+        <v>0.69611402689375801</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.74130977688797994</v>
+        <v>0.78353580887223262</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>9.6111655221979231E-2</v>
+        <v>0.1025287352686156</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>5.8204535280448E-2</v>
+        <v>3.7609909287224637E-2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.13898549202334559</v>
+        <v>0.15488677667539669</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.25408731837473342</v>
+        <v>0.19846875833118699</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>-0.32297210890166023</v>
+        <v>-0.30874160682836388</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.40892775907094531</v>
+        <v>0.39013007712488112</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.40440545038581938</v>
+        <v>0.42494865861836062</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.46035927841747171</v>
+        <v>0.46758904845053961</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>0.36779098271173638</v>
+        <v>0.45643504376579241</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.65562712472363072</v>
+        <v>0.62916874446647797</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.51951531317707567</v>
+        <v>0.51732192286668832</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.61850044037339946</v>
+        <v>0.65335696660641451</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.30971375970822879</v>
+        <v>0.32047318311507822</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.98747276384795213</v>
+        <v>0.95609610459923156</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.90392020470634238</v>
+        <v>0.86168930792204335</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>1.2092135038128311</v>
+        <v>1.1798846568858909</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>3.9058002641207349E-3</v>
+        <v>-3.106940409568136E-4</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>-0.60531320628379737</v>
+        <v>-0.61521923504618581</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>-0.53668697649277042</v>
+        <v>-0.53321309990531862</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>-0.47131093717409278</v>
+        <v>-0.46195503924939119</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>-0.73222640229268099</v>
+        <v>-0.73130932520478176</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>-0.53772458870689621</v>
+        <v>-0.54896410853820155</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>-0.77174450799747818</v>
+        <v>-0.76638397075880094</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>-0.46730201604894861</v>
+        <v>-0.46959143340058651</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>-0.32804485730103838</v>
+        <v>-0.3251317409943002</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>-0.29151528281754902</v>
+        <v>-0.27713529431114559</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>-0.50505721989707242</v>
+        <v>-0.49577307560532341</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>-0.49723560605980133</v>
+        <v>-0.49549115106969072</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>-0.46065537497680498</v>
+        <v>-0.46952906700822272</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>-0.6757795644972856</v>
+        <v>-0.67451186570550725</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>-0.73687822053294239</v>
+        <v>-0.74384232772542913</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>-0.73085420459522554</v>
+        <v>-0.72646337220297241</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>-0.36469594939523081</v>
+        <v>-0.36270543869908622</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>-0.34881761608690293</v>
+        <v>-0.3581134164921973</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>-0.59301318259422364</v>
+        <v>-0.59222847096175957</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>-0.49103938319740781</v>
+        <v>-0.46083334994386133</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>-0.2370693924988399</v>
+        <v>-0.2508248814950288</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>-0.32458985205695079</v>
+        <v>-0.32175098746966868</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>-0.20542516555903009</v>
+        <v>-0.1882259292282846</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>-0.41525542111526498</v>
+        <v>-0.41187736250914259</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>-0.10115413923215121</v>
+        <v>-0.1111301240659648</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>-0.30663674060238499</v>
+        <v>-0.32929996259092242</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>-0.445940411429399</v>
+        <v>-0.44829557051341268</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>-0.1379883358570726</v>
+        <v>-0.1479199094222334</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>0.55413967531801567</v>
+        <v>0.51472046397153803</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>4.2313851650785104</v>
+        <v>4.2900604022521813</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>17.5125370747941</v>
+        <v>17.7284487274271</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>4.6038543107598464</v>
+        <v>4.6237259901200893</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>3.3726592918006051</v>
+        <v>3.2568607715797939</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>2.8862997995562591</v>
+        <v>3.00405735253036</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>2.7893984597694592</v>
+        <v>2.7894526784766631</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>12.595235868226361</v>
+        <v>12.549392848112779</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>22.049337404153981</v>
+        <v>22.6171051676221</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>25.73635292964364</v>
+        <v>26.420912676884601</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>15.25828090861566</v>
+        <v>15.3082486020894</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>19.122804793734161</v>
+        <v>18.770576774902938</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>8.2060873490542505</v>
+        <v>8.2863251544975398</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>1.6343430891292969</v>
+        <v>1.5654235598742809</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>4.7874019351581438</v>
+        <v>4.9010709661860048</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>10.925732778766211</v>
+        <v>10.91985944960739</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>5.2776352307008301</v>
+        <v>5.3595876544069094</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>3.6758273855361949</v>
+        <v>3.7012795065946569</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>111.4560637852469</v>
+        <v>117.4489863157019</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>25.75643032288356</v>
+        <v>25.581893459201119</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>8.2839549645837458</v>
+        <v>8.30649812047435</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>7.2269667403659872</v>
+        <v>7.3352110071634726</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>4.486206115499316</v>
+        <v>4.5424243458889002</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>3.9477306694695051</v>
+        <v>3.8782859122922049</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>1.2293227413804531</v>
+        <v>1.1346432407257561</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>4.2846922878909046</v>
+        <v>4.2512085545989429</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>129.24983867286221</v>
+        <v>126.61809908793479</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>-0.55396868516599262</v>
+        <v>-0.56713864034126482</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.26667302533972248</v>
+        <v>0.28144442039298773</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>-0.2157187195730855</v>
+        <v>-0.2078678681402816</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>-0.36230737915853489</v>
+        <v>-0.35665747697490102</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>-0.29644892869551481</v>
+        <v>-0.31002360008876623</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>-0.55264132925017917</v>
+        <v>-0.53829473314816045</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>7.2791080955329403E-3</v>
+        <v>-1.4119558132588499E-3</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>0.1001058709988457</v>
+        <v>0.10482446962627209</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>4.7158663735087231E-3</v>
+        <v>5.7716649103770883E-2</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>-8.8535630524518044E-2</v>
+        <v>-7.1246293880775038E-2</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>-7.2452098499625778E-2</v>
+        <v>-4.7536113920088011E-2</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.15737502841447179</v>
+        <v>0.13494485903559719</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>-0.42946164400510117</v>
+        <v>-0.42735855071054168</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>-0.51205027134985326</v>
+        <v>-0.52783939298391513</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>-0.45366145954497722</v>
+        <v>-0.44554741832899802</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>-4.6830048707492057E-2</v>
+        <v>-4.4775075180661379E-2</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>-0.30175712867718441</v>
+        <v>-0.30424826952204509</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>-0.50565687029505502</v>
+        <v>-0.50705505889708724</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>-0.10969810229482251</v>
+        <v>-3.2543137810147157E-2</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>-1.20352988145132E-3</v>
+        <v>1.8165439841183351E-4</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>-0.1483466646600351</v>
+        <v>-0.14097099421783091</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>-0.22104915747890591</v>
+        <v>-0.21434058687686569</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>-0.2293150860486439</v>
+        <v>-0.2263846254902811</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.21882198479266551</v>
+        <v>0.20811520330155131</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>-0.26050451271466712</v>
+        <v>-0.28413603741472399</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>-0.32708888064039782</v>
+        <v>-0.323664548255582</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>1.904121863513909</v>
+        <v>1.848372319371004</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>-0.21523461666468921</v>
+        <v>-0.1627106886998835</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>-0.63713323024945911</v>
+        <v>-0.63880623012907356</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>-7.69563471541235E-2</v>
+        <v>-5.4893493843339192E-2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>-0.63720446075784221</v>
+        <v>-0.64023832840982786</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>-0.30507177755016113</v>
+        <v>-0.31457381902181758</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>-0.86678595145844639</v>
+        <v>-0.8647442017108613</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>-0.31640842250868523</v>
+        <v>-0.31350169663237881</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>-0.5501774247474025</v>
+        <v>-0.55832667539935288</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>-0.48077834621164789</v>
+        <v>-0.49071048494159841</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>-0.36544276509807672</v>
+        <v>-0.34566921163216469</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>-0.26499294132214057</v>
+        <v>-0.23575403932317501</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>-0.52178946802573889</v>
+        <v>-0.50763159585668405</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>-0.43070091021802298</v>
+        <v>-0.42769523762257572</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>-0.70411499483429696</v>
+        <v>-0.7132230778338563</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>-0.65499482410828069</v>
+        <v>-0.6440746833324108</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>-0.1873085325604541</v>
+        <v>-0.1799701955806611</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>-0.3121164957052554</v>
+        <v>-0.31542942467580998</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>-0.18077571775055931</v>
+        <v>-0.14304514834629911</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>0.41651567229585129</v>
+        <v>0.53199938324830254</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>1.35579557079757</v>
+        <v>1.3361059933578181</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.39937673416189712</v>
+        <v>0.39776036546355309</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.64364278263718067</v>
+        <v>0.63580136350286631</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.36668500386485858</v>
+        <v>0.36352686627367631</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0.30015436276546908</v>
+        <v>0.27172390484450781</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>-5.1870233228761012E-2</v>
+        <v>-7.409096612663893E-2</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.32956786912759012</v>
+        <v>0.30144184549201708</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>0.37277046174976469</v>
+        <v>0.38341332412627199</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>8.182684613728382</v>
+        <v>8.3028096856685281</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>6.9376823869201418</v>
+        <v>6.9261131341115778</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>8.7440409847563849</v>
+        <v>8.7706196262265781</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>6.8321629527613101</v>
+        <v>6.8253659178062431</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>7.5503917516476386</v>
+        <v>7.5350270515224729</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>5.7432587341688697</v>
+        <v>5.7646293885988849</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>7.7997669658463131</v>
+        <v>7.8011636684056089</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>7.0932675034693897</v>
+        <v>7.069863413581511</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>7.2683890719337958</v>
+        <v>7.2409919761339294</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>6.9710850005078173</v>
+        <v>7.0096233202958782</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>7.8046494908657111</v>
+        <v>7.8555248727279174</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>7.2188646447948974</v>
+        <v>7.2643891365725768</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>7.1068177856859531</v>
+        <v>7.1141682607585741</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>6.1134264636820124</v>
+        <v>6.0803885454939763</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>6.6507592615681492</v>
+        <v>6.6915170324452999</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>7.8812103613936824</v>
+        <v>7.8979524757920672</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
@@ -2414,132 +2412,132 @@
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>8.2296400928714633</v>
+        <v>8.3002015306055892</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>9.5596175536894172</v>
+        <v>9.7108442569740578</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>10.601984985237991</v>
+        <v>10.59512206517298</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>9.5586917503282578</v>
+        <v>9.5618090407980372</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>10.30248871185958</v>
+        <v>10.288040651940729</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>9.4570567833331296</v>
+        <v>9.448159225440719</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>10.04333937864129</v>
+        <v>9.9875880382100171</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>8.9050256787665614</v>
+        <v>8.8621464991979906</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>9.4147445694997867</v>
+        <v>9.3631404543255492</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>10.551933608934791</v>
+        <v>10.57153544595222</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>8.182684613728382</v>
+        <v>8.3028096856685281</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>6.9376823869201418</v>
+        <v>6.9261131341115778</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>8.7440409847563849</v>
+        <v>8.7706196262265781</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>6.8321629527613101</v>
+        <v>6.8253659178062431</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>7.5503917516476386</v>
+        <v>7.5350270515224729</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>5.7432587341688697</v>
+        <v>5.7646293885988849</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>7.7997669658463131</v>
+        <v>7.8011636684056089</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>7.0932675034693897</v>
+        <v>7.069863413581511</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>7.2683890719337958</v>
+        <v>7.2409919761339294</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>6.9710850005078173</v>
+        <v>7.0096233202958782</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>7.8046494908657111</v>
+        <v>7.8555248727279174</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>7.2188646447948974</v>
+        <v>7.2643891365725768</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>7.1068177856859531</v>
+        <v>7.1141682607585741</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>6.1134264636820124</v>
+        <v>6.0803885454939763</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>6.6507592615681492</v>
+        <v>6.6915170324452999</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>7.8812103613936824</v>
+        <v>7.8979524757920672</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
@@ -2549,132 +2547,132 @@
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>8.2296400928714633</v>
+        <v>8.3002015306055892</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>9.5596175536894172</v>
+        <v>9.7108442569740578</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>10.601984985237991</v>
+        <v>10.59512206517298</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>9.5586917503282578</v>
+        <v>9.5618090407980372</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>10.30248871185958</v>
+        <v>10.288040651940729</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>9.4570567833331296</v>
+        <v>9.448159225440719</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>10.04333937864129</v>
+        <v>9.9875880382100171</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>8.9050256787665614</v>
+        <v>8.8621464991979906</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>9.4147445694997867</v>
+        <v>9.3631404543255492</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>10.551933608934791</v>
+        <v>10.57153544595222</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>8.182684613728382</v>
+        <v>8.3028096856685281</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>6.9376823869201418</v>
+        <v>6.9261131341115778</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>8.7440409847563849</v>
+        <v>8.7706196262265781</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>6.8321629527613101</v>
+        <v>6.8253659178062431</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>7.5503917516476386</v>
+        <v>7.5350270515224729</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>5.7432587341688697</v>
+        <v>5.7646293885988849</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>7.7997669658463131</v>
+        <v>7.8011636684056089</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>7.0932675034693897</v>
+        <v>7.069863413581511</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>7.2683890719337958</v>
+        <v>7.2409919761339294</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>6.9710850005078173</v>
+        <v>7.0096233202958782</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>7.8046494908657111</v>
+        <v>7.8555248727279174</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>7.2188646447948974</v>
+        <v>7.2643891365725768</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>7.1068177856859531</v>
+        <v>7.1141682607585741</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>6.1134264636820124</v>
+        <v>6.0803885454939763</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>6.6507592615681492</v>
+        <v>6.6915170324452999</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>7.8812103613936824</v>
+        <v>7.8979524757920672</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
@@ -2684,132 +2682,132 @@
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>8.2296400928714633</v>
+        <v>8.3002015306055892</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>9.5596175536894172</v>
+        <v>9.7108442569740578</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>10.601984985237991</v>
+        <v>10.59512206517298</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>9.5586917503282578</v>
+        <v>9.5618090407980372</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>10.30248871185958</v>
+        <v>10.288040651940729</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>9.4570567833331296</v>
+        <v>9.448159225440719</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>10.04333937864129</v>
+        <v>9.9875880382100171</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>8.9050256787665614</v>
+        <v>8.8621464991979906</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>9.4147445694997867</v>
+        <v>9.3631404543255492</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>10.551933608934791</v>
+        <v>10.57153544595222</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>8.182684613728382</v>
+        <v>8.3028096856685281</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>6.9376823869201418</v>
+        <v>6.9261131341115778</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>8.7440409847563849</v>
+        <v>8.7706196262265781</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>6.8321629527613101</v>
+        <v>6.8253659178062431</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>7.5503917516476386</v>
+        <v>7.5350270515224729</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>5.7432587341688697</v>
+        <v>5.7646293885988849</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>7.7997669658463131</v>
+        <v>7.8011636684056089</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>7.0932675034693897</v>
+        <v>7.069863413581511</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>7.2683890719337958</v>
+        <v>7.2409919761339294</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>6.9710850005078173</v>
+        <v>7.0096233202958782</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>7.8046494908657111</v>
+        <v>7.8555248727279174</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>7.2188646447948974</v>
+        <v>7.2643891365725768</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>7.1068177856859531</v>
+        <v>7.1141682607585741</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>6.1134264636820124</v>
+        <v>6.0803885454939763</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>6.6507592615681492</v>
+        <v>6.6915170324452999</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>7.8812103613936824</v>
+        <v>7.8979524757920672</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
@@ -2819,132 +2817,132 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>8.2296400928714633</v>
+        <v>8.3002015306055892</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>9.5596175536894172</v>
+        <v>9.7108442569740578</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>10.601984985237991</v>
+        <v>10.59512206517298</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>9.5586917503282578</v>
+        <v>9.5618090407980372</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>10.30248871185958</v>
+        <v>10.288040651940729</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>9.4570567833331296</v>
+        <v>9.448159225440719</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>10.04333937864129</v>
+        <v>9.9875880382100171</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>8.9050256787665614</v>
+        <v>8.8621464991979906</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>9.4147445694997867</v>
+        <v>9.3631404543255492</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>10.551933608934791</v>
+        <v>10.57153544595222</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>8.182684613728382</v>
+        <v>8.3028096856685281</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>6.9376823869201418</v>
+        <v>6.9261131341115778</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>8.7440409847563849</v>
+        <v>8.7706196262265781</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>6.8321629527613101</v>
+        <v>6.8253659178062431</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>7.5503917516476386</v>
+        <v>7.5350270515224729</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>5.7432587341688697</v>
+        <v>5.7646293885988849</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>7.7997669658463131</v>
+        <v>7.8011636684056089</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>7.0932675034693897</v>
+        <v>7.069863413581511</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>7.2683890719337958</v>
+        <v>7.2409919761339294</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>6.9710850005078173</v>
+        <v>7.0096233202958782</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>7.8046494908657111</v>
+        <v>7.8555248727279174</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>7.2188646447948974</v>
+        <v>7.2643891365725768</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>7.1068177856859531</v>
+        <v>7.1141682607585741</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>6.1134264636820124</v>
+        <v>6.0803885454939763</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>6.6507592615681492</v>
+        <v>6.6915170324452999</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>7.8812103613936824</v>
+        <v>7.8979524757920672</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
@@ -2954,132 +2952,132 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>8.2296400928714633</v>
+        <v>8.3002015306055892</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>9.5596175536894172</v>
+        <v>9.7108442569740578</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>10.601984985237991</v>
+        <v>10.59512206517298</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>9.5586917503282578</v>
+        <v>9.5618090407980372</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>10.30248871185958</v>
+        <v>10.288040651940729</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>9.4570567833331296</v>
+        <v>9.448159225440719</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>10.04333937864129</v>
+        <v>9.9875880382100171</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>8.9050256787665614</v>
+        <v>8.8621464991979906</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>9.4147445694997867</v>
+        <v>9.3631404543255492</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>10.551933608934791</v>
+        <v>10.57153544595222</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>8.182684613728382</v>
+        <v>8.3028096856685281</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>6.9376823869201418</v>
+        <v>6.9261131341115778</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>8.7440409847563849</v>
+        <v>8.7706196262265781</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>6.8321629527613101</v>
+        <v>6.8253659178062431</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>7.5503917516476386</v>
+        <v>7.5350270515224729</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>5.7432587341688697</v>
+        <v>5.7646293885988849</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>7.7997669658463131</v>
+        <v>7.8011636684056089</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>7.0932675034693897</v>
+        <v>7.069863413581511</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>7.2683890719337958</v>
+        <v>7.2409919761339294</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>6.9710850005078173</v>
+        <v>7.0096233202958782</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>7.8046494908657111</v>
+        <v>7.8555248727279174</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>7.2188646447948974</v>
+        <v>7.2643891365725768</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>7.1068177856859531</v>
+        <v>7.1141682607585741</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>6.1134264636820124</v>
+        <v>6.0803885454939763</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>6.6507592615681492</v>
+        <v>6.6915170324452999</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>7.8812103613936824</v>
+        <v>7.8979524757920672</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
@@ -3089,132 +3087,132 @@
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>8.2296400928714633</v>
+        <v>8.3002015306055892</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>9.5596175536894172</v>
+        <v>9.7108442569740578</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>10.601984985237991</v>
+        <v>10.59512206517298</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>9.5586917503282578</v>
+        <v>9.5618090407980372</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>10.30248871185958</v>
+        <v>10.288040651940729</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>9.4570567833331296</v>
+        <v>9.448159225440719</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>10.04333937864129</v>
+        <v>9.9875880382100171</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>8.9050256787665614</v>
+        <v>8.8621464991979906</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>9.4147445694997867</v>
+        <v>9.3631404543255492</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541">
-        <v>10.551933608934791</v>
+        <v>10.57153544595222</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>8.182684613728382</v>
+        <v>8.3028096856685281</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>6.9376823869201418</v>
+        <v>6.9261131341115778</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>8.7440409847563849</v>
+        <v>8.7706196262265781</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>6.8321629527613101</v>
+        <v>6.8253659178062431</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>7.5503917516476386</v>
+        <v>7.5350270515224729</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
-        <v>5.7432587341688697</v>
+        <v>5.7646293885988849</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548">
-        <v>7.7997669658463131</v>
+        <v>7.8011636684056089</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>7.0932675034693897</v>
+        <v>7.069863413581511</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>7.2683890719337958</v>
+        <v>7.2409919761339294</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
-        <v>6.9710850005078173</v>
+        <v>7.0096233202958782</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552">
-        <v>7.8046494908657111</v>
+        <v>7.8555248727279174</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>7.2188646447948974</v>
+        <v>7.2643891365725768</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
-        <v>7.1068177856859531</v>
+        <v>7.1141682607585741</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>6.1134264636820124</v>
+        <v>6.0803885454939763</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>6.6507592615681492</v>
+        <v>6.6915170324452999</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>7.8812103613936824</v>
+        <v>7.8979524757920672</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
@@ -3224,52 +3222,52 @@
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
-        <v>8.2296400928714633</v>
+        <v>8.3002015306055892</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
-        <v>9.5596175536894172</v>
+        <v>9.7108442569740578</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
-        <v>10.601984985237991</v>
+        <v>10.59512206517298</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>9.5586917503282578</v>
+        <v>9.5618090407980372</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
-        <v>10.30248871185958</v>
+        <v>10.288040651940729</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>9.4570567833331296</v>
+        <v>9.448159225440719</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
-        <v>10.04333937864129</v>
+        <v>9.9875880382100171</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
-        <v>8.9050256787665614</v>
+        <v>8.8621464991979906</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>9.4147445694997867</v>
+        <v>9.3631404543255492</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568">
-        <v>10.551933608934791</v>
+        <v>10.57153544595222</v>
       </c>
     </row>
   </sheetData>
